--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Hola mundo</t>
   </si>
@@ -42,13 +42,16 @@
     <t>c5</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>total col</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
   <si>
     <t>Column2</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>Hola2</t>
   </si>
   <si>
     <t>Column4</t>
@@ -64,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -160,17 +166,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -197,18 +207,19 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf/>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tabla_1" displayName="tabla_1" ref="A14:D18" totalsRowShown="0">
-  <autoFilter ref="A14:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tabla_1" displayName="tabla_1" ref="A14:D18" totalsRowCount="1">
+  <autoFilter ref="A14:D17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Hola" totalsRowLabel="total col" dataDxfId="1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="3" name="Hola2" totalsRowFunction="sum"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -635,22 +646,22 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>8</v>
+      <c r="A14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -663,8 +674,8 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>13</v>
+      <c r="A16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -677,7 +688,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17">
@@ -691,17 +702,12 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
+      <c r="A18" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
+        <f>SUBTOTAL(109,[Hola2])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
